--- a/test data/Graphs/depth first graph popularity.xlsx
+++ b/test data/Graphs/depth first graph popularity.xlsx
@@ -1074,11 +1074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73615616"/>
-        <c:axId val="73617792"/>
+        <c:axId val="293679104"/>
+        <c:axId val="293681024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73615616"/>
+        <c:axId val="293679104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1112,12 +1112,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73617792"/>
+        <c:crossAx val="293681024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73617792"/>
+        <c:axId val="293681024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1154,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73615616"/>
+        <c:crossAx val="293679104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1459,11 +1459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73639040"/>
-        <c:axId val="73640960"/>
+        <c:axId val="293714944"/>
+        <c:axId val="293729408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73639040"/>
+        <c:axId val="293714944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,12 +1492,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73640960"/>
+        <c:crossAx val="293729408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73640960"/>
+        <c:axId val="293729408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1532,7 +1532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73639040"/>
+        <c:crossAx val="293714944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1820,11 +1820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74230784"/>
-        <c:axId val="74785920"/>
+        <c:axId val="293504128"/>
+        <c:axId val="293506048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74230784"/>
+        <c:axId val="293504128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,12 +1853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74785920"/>
+        <c:crossAx val="293506048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74785920"/>
+        <c:axId val="293506048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1893,7 +1893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74230784"/>
+        <c:crossAx val="293504128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1946,6 +1946,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2180,11 +2181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74814592"/>
-        <c:axId val="74816512"/>
+        <c:axId val="293524608"/>
+        <c:axId val="293526528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74814592"/>
+        <c:axId val="293524608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,18 +2207,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74816512"/>
+        <c:crossAx val="293526528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74816512"/>
+        <c:axId val="293526528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2245,13 +2247,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74814592"/>
+        <c:crossAx val="293524608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2538,11 +2541,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74841088"/>
-        <c:axId val="75068544"/>
+        <c:axId val="294005760"/>
+        <c:axId val="294024320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74841088"/>
+        <c:axId val="294005760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,12 +2573,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75068544"/>
+        <c:crossAx val="294024320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75068544"/>
+        <c:axId val="294024320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2609,7 +2612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74841088"/>
+        <c:crossAx val="294005760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3041,11 +3044,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="75576448"/>
-        <c:axId val="75578368"/>
+        <c:axId val="294147200"/>
+        <c:axId val="294149120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75576448"/>
+        <c:axId val="294147200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3074,7 +3077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75578368"/>
+        <c:crossAx val="294149120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3082,7 +3085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75578368"/>
+        <c:axId val="294149120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3116,7 +3119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75576448"/>
+        <c:crossAx val="294147200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3650,7 +3653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
